--- a/dist/document/dest/2020/10/doctors/75.xlsx
+++ b/dist/document/dest/2020/10/doctors/75.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>16700</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>94</v>
       </c>
-      <c r="C3" s="1">
-        <v>784900</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>2213</v>
       </c>
-      <c r="C4" s="1">
-        <v>17040100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>112</v>
       </c>
-      <c r="C5" s="1">
-        <v>592480</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>20500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>153560</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>322</v>
       </c>
-      <c r="C8" s="1">
-        <v>703570</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>1064</v>
       </c>
-      <c r="C9" s="1">
-        <v>457520</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="1">
-        <v>164400</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>169050</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>654</v>
       </c>
-      <c r="C12" s="1">
-        <v>2256300</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>98</v>
       </c>
-      <c r="C13" s="1">
-        <v>416990</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>946</v>
       </c>
-      <c r="C14" s="1">
-        <v>964920</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>282</v>
       </c>
-      <c r="C15" s="1">
-        <v>3262740</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>132</v>
       </c>
-      <c r="C16" s="1">
-        <v>477840</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>84</v>
       </c>
-      <c r="C17" s="1">
-        <v>414120</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>1362</v>
       </c>
-      <c r="C18" s="1">
-        <v>16480200</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1075</v>
       </c>
-      <c r="C19" s="1">
-        <v>3708750</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>84</v>
       </c>
-      <c r="C20" s="1">
-        <v>571200</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>112</v>
       </c>
-      <c r="C21" s="1">
-        <v>1288000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>60</v>
       </c>
-      <c r="C22" s="1">
-        <v>323400</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="1">
-        <v>246600</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>618</v>
       </c>
-      <c r="C24" s="1">
-        <v>8565480</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>84</v>
       </c>
-      <c r="C25" s="1">
-        <v>260820</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>1599</v>
       </c>
-      <c r="C26" s="1">
-        <v>5772390</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>732</v>
       </c>
-      <c r="C27" s="1">
-        <v>4816560</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>32</v>
       </c>
-      <c r="C28" s="1">
-        <v>7840</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>1628</v>
       </c>
-      <c r="C29" s="1">
-        <v>488400</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
-        <v>50600</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
-        <v>75880</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>15</v>
       </c>
-      <c r="C32" s="1">
-        <v>4320000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>2166</v>
       </c>
-      <c r="C33" s="1">
-        <v>13104300</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>782</v>
       </c>
-      <c r="C34" s="1">
-        <v>16734800</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>843</v>
       </c>
-      <c r="C35" s="1">
-        <v>18040200</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>494</v>
       </c>
-      <c r="C36" s="1">
-        <v>4468230</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>5007</v>
       </c>
-      <c r="C37" s="1">
-        <v>51071400</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>100</v>
       </c>
-      <c r="C38" s="1">
-        <v>80500</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>1883</v>
       </c>
-      <c r="C39" s="1">
-        <v>8661800</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>224</v>
       </c>
-      <c r="C40" s="1">
-        <v>1281280</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>1094</v>
       </c>
-      <c r="C41" s="1">
-        <v>2007490</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>487</v>
       </c>
-      <c r="C42" s="1">
-        <v>2712590</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>1103</v>
       </c>
-      <c r="C43" s="1">
-        <v>4654660</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>366</v>
       </c>
-      <c r="C44" s="1">
-        <v>1756800</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>112</v>
       </c>
-      <c r="C45" s="1">
-        <v>533120</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>250</v>
       </c>
-      <c r="C46" s="1">
-        <v>3080000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>56</v>
       </c>
-      <c r="C47" s="1">
-        <v>515200</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>927</v>
       </c>
-      <c r="C48" s="1">
-        <v>3457710</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>514</v>
       </c>
-      <c r="C49" s="1">
-        <v>1832410</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>168</v>
       </c>
-      <c r="C50" s="1">
-        <v>1965600</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>658</v>
       </c>
-      <c r="C51" s="1">
-        <v>7698600</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>27</v>
       </c>
-      <c r="C52" s="1">
-        <v>685260</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="1">
-        <v>670000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>28</v>
       </c>
-      <c r="C54" s="1">
-        <v>74060</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>984</v>
       </c>
-      <c r="C55" s="1">
-        <v>15350400</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>1372</v>
       </c>
-      <c r="C56" s="1">
-        <v>4733400</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>36</v>
       </c>
-      <c r="C57" s="1">
-        <v>10656000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>1148</v>
       </c>
-      <c r="C58" s="1">
-        <v>1940120</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>3810</v>
       </c>
-      <c r="C59" s="1">
-        <v>4400550</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>40</v>
       </c>
-      <c r="C60" s="1">
-        <v>477600</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>4660</v>
       </c>
-      <c r="C61" s="1">
-        <v>34856800</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>546</v>
       </c>
-      <c r="C62" s="1">
-        <v>3013920</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>56</v>
       </c>
-      <c r="C63" s="1">
-        <v>326480</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>168</v>
       </c>
-      <c r="C64" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>112</v>
       </c>
-      <c r="C65" s="1">
-        <v>800800</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>438</v>
       </c>
-      <c r="C66" s="1">
-        <v>805920</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>303</v>
       </c>
-      <c r="C67" s="1">
-        <v>642360</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>515</v>
       </c>
-      <c r="C68" s="1">
-        <v>5883875</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>3</v>
       </c>
-      <c r="C69" s="1">
-        <v>449400</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>2712</v>
       </c>
-      <c r="C70" s="1">
-        <v>6047760</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>2284</v>
       </c>
-      <c r="C71" s="1">
-        <v>9193100</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>196</v>
       </c>
-      <c r="C72" s="1">
-        <v>128380</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>438</v>
       </c>
-      <c r="C73" s="1">
-        <v>1762950</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>561</v>
       </c>
-      <c r="C74" s="1">
-        <v>2580600</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>525</v>
       </c>
-      <c r="C75" s="1">
-        <v>1296750</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>17</v>
       </c>
-      <c r="C76" s="1">
-        <v>4556000</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>3</v>
       </c>
-      <c r="C77" s="1">
-        <v>810000</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>210</v>
       </c>
-      <c r="C78" s="1">
-        <v>1207500</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>101</v>
       </c>
-      <c r="C79" s="1">
-        <v>319160</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>718</v>
       </c>
-      <c r="C80" s="1">
-        <v>2889950</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>310</v>
       </c>
-      <c r="C81" s="1">
-        <v>1033850</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>98</v>
       </c>
-      <c r="C82" s="1">
-        <v>725200</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>819</v>
       </c>
-      <c r="C83" s="1">
-        <v>7567560</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>2190</v>
       </c>
-      <c r="C84" s="1">
-        <v>19272000</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>1728</v>
       </c>
-      <c r="C85" s="1">
-        <v>12355200</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>56</v>
       </c>
-      <c r="C86" s="1">
-        <v>24640000</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>3536</v>
       </c>
-      <c r="C87" s="1">
-        <v>14020240</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>56</v>
       </c>
-      <c r="C88" s="1">
-        <v>45864</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>10</v>
       </c>
-      <c r="C89" s="1">
-        <v>8500</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>1314</v>
       </c>
-      <c r="C90" s="1">
-        <v>14309460</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>239</v>
       </c>
-      <c r="C91" s="1">
-        <v>1161540</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>146</v>
       </c>
-      <c r="C92" s="1">
-        <v>1108140</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>2883</v>
       </c>
-      <c r="C93" s="1">
-        <v>4641630</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>254</v>
       </c>
-      <c r="C94" s="1">
-        <v>4513580</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>714</v>
       </c>
-      <c r="C95" s="1">
-        <v>2463300</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>156</v>
       </c>
-      <c r="C96" s="1">
-        <v>444600</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>602</v>
       </c>
-      <c r="C97" s="1">
-        <v>1453830</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>6</v>
       </c>
-      <c r="C98" s="1">
-        <v>8718000</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>140</v>
       </c>
-      <c r="C99" s="1">
-        <v>1201200</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>4</v>
       </c>
-      <c r="C100" s="1">
-        <v>278000</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>112</v>
       </c>
-      <c r="C101" s="1">
-        <v>1977920</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>56</v>
       </c>
-      <c r="C102" s="1">
-        <v>523600</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>2</v>
       </c>
-      <c r="C103" s="1">
-        <v>24600</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>28</v>
       </c>
-      <c r="C104" s="1">
-        <v>209160</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1538,7 +1229,7 @@
         <v>68280</v>
       </c>
       <c r="C105" s="1">
-        <v>457977769</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/75.xlsx
+++ b/dist/document/dest/2020/10/doctors/75.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Acyclovir PM</v>
+        <v>Amlor 5mg Pfizer (Amlodipine)</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="1">
+        <v>467600</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +413,10 @@
         <v>Amlor 5mg Pfizer (Amlodipine)</v>
       </c>
       <c r="B3" s="1">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>467600</v>
       </c>
     </row>
     <row r="4">
@@ -418,823 +424,3051 @@
         <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B4" s="1">
-        <v>2213</v>
+        <v>1512</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11642400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B5" s="1">
-        <v>112</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bar 60v/lọ</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>431200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve">Berocca </v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1509200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>322</v>
+        <v>290</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2233000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Calci D</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>1064</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>107800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Calcium Corbiere</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Calcium SANDOZ + vitamin D3</v>
+        <v>Bar 60v/lọ</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>82000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v xml:space="preserve">Berocca </v>
       </c>
       <c r="B12" s="1">
-        <v>654</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>76780</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>98</v>
+        <v>162</v>
+      </c>
+      <c r="C13" s="1">
+        <v>353970</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Chophytol (Artichaut 200mg)</v>
+        <v>Calci D</v>
       </c>
       <c r="B14" s="1">
-        <v>946</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Co Aprovel 150/12.5mg (Irbesartan, hydrochlorothiazide)</v>
+        <v>Calci D</v>
       </c>
       <c r="B15" s="1">
-        <v>282</v>
+        <v>894</v>
+      </c>
+      <c r="C15" s="1">
+        <v>384420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Calci D</v>
       </c>
       <c r="B16" s="1">
-        <v>132</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12040</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Concor 5mg (Bisoprolol )</v>
+        <v>Calci D</v>
       </c>
       <c r="B17" s="1">
-        <v>84</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="1">
+        <v>48160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B18" s="1">
-        <v>1362</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>1075</v>
+        <v>392</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1667960</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Coversyl 5mg (Perindopril arginine)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>178710</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Cozaar XQ (Amlodipine, losartan) 5/50mg</v>
+        <v>Chophytol (Artichaut 200mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>112</v>
+        <v>84</v>
+      </c>
+      <c r="C21" s="1">
+        <v>85680</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cystine B6 (L-cystine, B6)</v>
+        <v>Chophytol (Artichaut 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>60</v>
+        <v>802</v>
+      </c>
+      <c r="C22" s="1">
+        <v>818040</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Chophytol (Artichaut 200mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="C23" s="1">
+        <v>87720</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Dasbrain (DHA, EPA, Tuna)</v>
+        <v>Chophytol (Artichaut 200mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>618</v>
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B25" s="1">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="1">
+        <v>176960</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Co Aprovel 150/12.5mg (Irbesartan, hydrochlorothiazide)</v>
       </c>
       <c r="B26" s="1">
-        <v>1599</v>
+        <v>42</v>
+      </c>
+      <c r="C26" s="1">
+        <v>485940</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Co Aprovel 150/12.5mg (Irbesartan, hydrochlorothiazide)</v>
       </c>
       <c r="B27" s="1">
-        <v>732</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>323960</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B28" s="1">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
+        <v>354760</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B29" s="1">
-        <v>1628</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>152040</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Dopegyt (Methyldopa 250mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B30" s="1">
-        <v>20</v>
+        <v>224</v>
+      </c>
+      <c r="C30" s="1">
+        <v>810880</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v xml:space="preserve">Enervon C </v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1016400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Eprex 2.000 IU/0.5ml</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>15</v>
+        <v>832</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10067200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>2166</v>
+        <v>84</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1016400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Forxiga (Dapagliflozin 10mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>782</v>
+        <v>42</v>
+      </c>
+      <c r="C34" s="1">
+        <v>508200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Forxiga (Dapagliflozin 5mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>843</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Galvus 50mg (Vildagliptin)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>494</v>
+        <v>84</v>
+      </c>
+      <c r="C36" s="1">
+        <v>289800</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>5007</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <v>96600</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Garlic-Oil ( Dầu tỏi Tuệ Linh)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="C38" s="1">
+        <v>234600</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>1883</v>
+        <v>406</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1400700</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>224</v>
+        <v>28</v>
+      </c>
+      <c r="C40" s="1">
+        <v>96600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Glucophage 500mg (Metformin)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>1094</v>
+        <v>28</v>
+      </c>
+      <c r="C41" s="1">
+        <v>96600</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
+        <v>Coversyl 5mg (Perindopril arginine)</v>
       </c>
       <c r="B42" s="1">
-        <v>487</v>
+        <v>28</v>
+      </c>
+      <c r="C42" s="1">
+        <v>190400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Glucophage XR 750mg (Metformin hydrochloride)</v>
+        <v>Coversyl Plus (Perindopril arginine, indapamide)</v>
       </c>
       <c r="B43" s="1">
-        <v>1103</v>
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>219520</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Glucophage XR 750mg (Metformin hydrochloride)</v>
+        <v>Coversyl Plus (Perindopril arginine, indapamide)</v>
       </c>
       <c r="B44" s="1">
-        <v>366</v>
+        <v>84</v>
+      </c>
+      <c r="C44" s="1">
+        <v>658560</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Herbesser 100mg (Diltiazem)</v>
+        <v>Cozaar (Losartan 50mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Homan (Ursodeoxycholic 300mg)</v>
+        <v>Cystine B6 (L-cystine, B6)</v>
       </c>
       <c r="B46" s="1">
-        <v>250</v>
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>226380</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Hyzaar 50/12.5mg (Losartan, hydrochlorothiazid)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B47" s="1">
-        <v>56</v>
+        <v>196</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2716560</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Imdur 30mg (Isosorbide )</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B48" s="1">
-        <v>927</v>
+        <v>56</v>
+      </c>
+      <c r="C48" s="1">
+        <v>776160</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B49" s="1">
-        <v>514</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="1">
+        <v>831600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B50" s="1">
-        <v>168</v>
+        <v>56</v>
+      </c>
+      <c r="C50" s="1">
+        <v>776160</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin1000mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B51" s="1">
-        <v>658</v>
+        <v>84</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1164240</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Jardiance (Empagliflozin 10mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C52" s="1">
+        <v>46575</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve">Jex max </v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C53" s="1">
+        <v>101080</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B54" s="1">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="C54" s="1">
+        <v>353780</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Ketosteril</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B55" s="1">
-        <v>984</v>
+        <v>1038</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3747180</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B56" s="1">
-        <v>1372</v>
+        <v>84</v>
+      </c>
+      <c r="C56" s="1">
+        <v>303240</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Lantus Solostar 100IU/ml</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B57" s="1">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>202160</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B58" s="1">
-        <v>1148</v>
+        <v>392</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2579360</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B59" s="1">
-        <v>3810</v>
+        <v>28</v>
+      </c>
+      <c r="C59" s="1">
+        <v>184240</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B60" s="1">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C60" s="1">
+        <v>184240</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B61" s="1">
-        <v>4660</v>
+        <v>154</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1013320</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B62" s="1">
-        <v>546</v>
+        <v>248</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1631840</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B63" s="1">
-        <v>56</v>
+        <v>376</v>
+      </c>
+      <c r="C63" s="1">
+        <v>112800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Lothisil (PTU-Propylthiouracil 50mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B64" s="1">
-        <v>168</v>
+        <v>28</v>
+      </c>
+      <c r="C64" s="1">
+        <v>8400</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B65" s="1">
-        <v>112</v>
+        <v>84</v>
+      </c>
+      <c r="C65" s="1">
+        <v>25200</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B66" s="1">
-        <v>438</v>
+        <v>28</v>
+      </c>
+      <c r="C66" s="1">
+        <v>8400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B67" s="1">
-        <v>303</v>
+        <v>28</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8400</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Micardis Plus (Telmisartan 40/12.5mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B68" s="1">
-        <v>515</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="1">
+        <v>99600</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v xml:space="preserve">Enervon C </v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>302</v>
+      </c>
+      <c r="C69" s="1">
+        <v>818420</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+        <v xml:space="preserve">Enervon C </v>
       </c>
       <c r="B70" s="1">
-        <v>2712</v>
+        <v>210</v>
+      </c>
+      <c r="C70" s="1">
+        <v>569100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Nevol (Nebivolol 2.5mg)</v>
+        <v xml:space="preserve">Enervon C </v>
       </c>
       <c r="B71" s="1">
-        <v>2284</v>
+        <v>14</v>
+      </c>
+      <c r="C71" s="1">
+        <v>37940</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Nifedipin 20</v>
+        <v xml:space="preserve">Enervon C </v>
       </c>
       <c r="B72" s="1">
-        <v>196</v>
+        <v>140</v>
+      </c>
+      <c r="C72" s="1">
+        <v>379400</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Eprex 2.000 IU/0.5ml</v>
       </c>
       <c r="B73" s="1">
-        <v>438</v>
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>576000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Eprex 2.000 IU/0.5ml</v>
       </c>
       <c r="B74" s="1">
-        <v>561</v>
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1152000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>525</v>
+        <v>84</v>
+      </c>
+      <c r="C75" s="1">
+        <v>508200</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v xml:space="preserve">Novomix Flexpen </v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>17</v>
+        <v>116</v>
+      </c>
+      <c r="C76" s="1">
+        <v>701800</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Novorapid Flexpen 100U/ml</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C77" s="1">
+        <v>302500</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>210</v>
+        <v>168</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1016400</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>101</v>
+        <v>232</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1403600</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>718</v>
+        <v>1224</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7405200</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>310</v>
+        <v>112</v>
+      </c>
+      <c r="C81" s="1">
+        <v>677600</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Plendil (Felodipine) 5mg</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>98</v>
+        <v>28</v>
+      </c>
+      <c r="C82" s="1">
+        <v>169400</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B83" s="1">
-        <v>819</v>
+        <v>84</v>
+      </c>
+      <c r="C83" s="1">
+        <v>118440</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B84" s="1">
-        <v>2190</v>
+        <v>84</v>
+      </c>
+      <c r="C84" s="1">
+        <v>118440</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>1728</v>
+        <v>84</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1848000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Ryzodeg Flextouch 100U/ml</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B86" s="1">
         <v>56</v>
       </c>
+      <c r="C86" s="1">
+        <v>1232000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>3536</v>
+        <v>84</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1848000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Stadnolol (Atenolol 50mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B88" s="1">
         <v>56</v>
       </c>
+      <c r="C88" s="1">
+        <v>1198400</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Stugeron (Cinnarizine 25mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>10</v>
+        <v>322</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7084000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>1314</v>
+        <v>89</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1958000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Tanakan (Ginkgo biloba 40mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>239</v>
+        <v>14</v>
+      </c>
+      <c r="C91" s="1">
+        <v>308000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>146</v>
+        <v>168</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3696000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B93" s="1">
-        <v>2883</v>
+        <v>84</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1848000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Trajenta 5mg (Linagliptin)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B94" s="1">
-        <v>254</v>
+        <v>84</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1797600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B95" s="1">
-        <v>714</v>
+        <v>278</v>
+      </c>
+      <c r="C95" s="1">
+        <v>6116000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Trymo (Bismuth Subcitrate)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B96" s="1">
-        <v>156</v>
+        <v>196</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4312000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B97" s="1">
-        <v>602</v>
+        <v>42</v>
+      </c>
+      <c r="C97" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Victoza (Liraglutide 6mg/ml)</v>
+        <v>Galvus 50mg (Vildagliptin)</v>
       </c>
       <c r="B98" s="1">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="C98" s="1">
+        <v>253260</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Galvus 50mg (Vildagliptin)</v>
       </c>
       <c r="B99" s="1">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="C99" s="1">
+        <v>253260</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Voltaren 1% Emulgel 20g</v>
+        <v>Galvus 50mg (Vildagliptin)</v>
       </c>
       <c r="B100" s="1">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="C100" s="1">
+        <v>253260</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Xatral XL(Alfuzosine 10mg)</v>
+        <v>Galvus 50mg (Vildagliptin)</v>
       </c>
       <c r="B101" s="1">
-        <v>112</v>
+        <v>233</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2107485</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Zanedip (Lercanidipine10mg)</v>
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
       </c>
       <c r="B102" s="1">
-        <v>56</v>
+        <v>224</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2284800</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
       </c>
       <c r="B103" s="1">
-        <v>2</v>
+        <v>666</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6793200</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Zestoretic 20mg(LIsinopril, hydrochlorothiazide)</v>
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
       </c>
       <c r="B104" s="1">
-        <v>28</v>
+        <v>112</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1142400</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>168</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1713600</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>548</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5589600</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2270</v>
+      </c>
+      <c r="C107" s="1">
+        <v>23154000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>604</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6160800</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>488</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4977600</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Garlic-Oil ( Dầu tỏi Tuệ Linh)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>84</v>
+      </c>
+      <c r="C111" s="1">
+        <v>386400</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>252</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1159200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1067200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>749</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3445400</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>276</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1269600</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>154</v>
+      </c>
+      <c r="C116" s="1">
+        <v>708400</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>84</v>
+      </c>
+      <c r="C117" s="1">
+        <v>480480</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Ginkor Fort (Ginko biloba Ex, heptaminol, troxerutin)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>84</v>
+      </c>
+      <c r="C118" s="1">
+        <v>328440</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>42</v>
+      </c>
+      <c r="C119" s="1">
+        <v>77070</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>154</v>
+      </c>
+      <c r="C120" s="1">
+        <v>282590</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1">
+        <v>25690</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Glucophage 850mg (Metformin)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>84</v>
+      </c>
+      <c r="C122" s="1">
+        <v>343560</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>196</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1091720</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>84</v>
+      </c>
+      <c r="C124" s="1">
+        <v>467880</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>196</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1091720</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1">
+        <v>155960</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>56</v>
+      </c>
+      <c r="C127" s="1">
+        <v>689920</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>168</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2069760</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B129" s="1">
+        <v>84</v>
+      </c>
+      <c r="C129" s="1">
+        <v>313320</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B130" s="1">
+        <v>28</v>
+      </c>
+      <c r="C130" s="1">
+        <v>104440</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B131" s="1">
+        <v>98</v>
+      </c>
+      <c r="C131" s="1">
+        <v>365540</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B132" s="1">
+        <v>56</v>
+      </c>
+      <c r="C132" s="1">
+        <v>208880</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Imdur 60mg (Isosorbide)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1">
+        <v>77770</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>144</v>
+      </c>
+      <c r="C134" s="1">
+        <v>513360</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>666</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2374290</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>72</v>
+      </c>
+      <c r="C136" s="1">
+        <v>256680</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin1000mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>217</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2538900</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Jardiance (Empagliflozin 10mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>84</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2131920</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Jardiance (Empagliflozin 10mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1">
+        <v>710640</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Jardiance (Empagliflozin 10mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>84</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2131920</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v xml:space="preserve">Jex max </v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Ketosteril</v>
+      </c>
+      <c r="B142" s="1">
+        <v>56</v>
+      </c>
+      <c r="C142" s="1">
+        <v>873600</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Ketosteril</v>
+      </c>
+      <c r="B143" s="1">
+        <v>84</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1310400</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Ketosteril</v>
+      </c>
+      <c r="B144" s="1">
+        <v>168</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2620800</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Ketosteril</v>
+      </c>
+      <c r="B145" s="1">
+        <v>546</v>
+      </c>
+      <c r="C145" s="1">
+        <v>8517600</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Ketosteril</v>
+      </c>
+      <c r="B146" s="1">
+        <v>168</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2620800</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>72</v>
+      </c>
+      <c r="C147" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>48</v>
+      </c>
+      <c r="C148" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>96</v>
+      </c>
+      <c r="C149" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B151" s="1">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B152" s="1">
+        <v>3</v>
+      </c>
+      <c r="C152" s="1">
+        <v>888000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B153" s="1">
+        <v>20</v>
+      </c>
+      <c r="C153" s="1">
+        <v>5920000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B154" s="1">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2072000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1184000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>140</v>
+      </c>
+      <c r="C156" s="1">
+        <v>236600</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>280</v>
+      </c>
+      <c r="C157" s="1">
+        <v>473200</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>148</v>
+      </c>
+      <c r="C158" s="1">
+        <v>250120</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>138</v>
+      </c>
+      <c r="C159" s="1">
+        <v>159390</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>310</v>
+      </c>
+      <c r="C160" s="1">
+        <v>358050</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>126</v>
+      </c>
+      <c r="C161" s="1">
+        <v>145530</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2524</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2915220</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>700</v>
+      </c>
+      <c r="C163" s="1">
+        <v>808500</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>504</v>
+      </c>
+      <c r="C164" s="1">
+        <v>582120</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>168</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1256640</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>336</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2513280</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>168</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1256640</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>464</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3470720</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4482</v>
+      </c>
+      <c r="C169" s="1">
+        <v>33525360</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>280</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2094400</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>336</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2513280</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>112</v>
+      </c>
+      <c r="C172" s="1">
+        <v>618240</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B173" s="1">
+        <v>112</v>
+      </c>
+      <c r="C173" s="1">
+        <v>652960</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>98</v>
+      </c>
+      <c r="C174" s="1">
+        <v>180320</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>40</v>
+      </c>
+      <c r="C175" s="1">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>308</v>
+      </c>
+      <c r="C176" s="1">
+        <v>566720</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>252</v>
+      </c>
+      <c r="C177" s="1">
+        <v>463680</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>224</v>
+      </c>
+      <c r="C178" s="1">
+        <v>412160</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>138</v>
+      </c>
+      <c r="C179" s="1">
+        <v>253920</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B180" s="1">
+        <v>154</v>
+      </c>
+      <c r="C180" s="1">
+        <v>326480</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B181" s="1">
+        <v>84</v>
+      </c>
+      <c r="C181" s="1">
+        <v>178080</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B182" s="1">
+        <v>56</v>
+      </c>
+      <c r="C182" s="1">
+        <v>118720</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Micardis Plus (Telmisartan 40/12.5mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>56</v>
+      </c>
+      <c r="C183" s="1">
+        <v>639800</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Micardis Plus (Telmisartan 40/12.5mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>299</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3416075</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Micardis Plus (Telmisartan 40/12.5mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>150</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1713750</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1">
+        <v>299600</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>84</v>
+      </c>
+      <c r="C187" s="1">
+        <v>187320</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>28</v>
+      </c>
+      <c r="C188" s="1">
+        <v>62440</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>184</v>
+      </c>
+      <c r="C189" s="1">
+        <v>410320</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1463</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3262490</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>525</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1170750</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>452</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1007960</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>28</v>
+      </c>
+      <c r="C193" s="1">
+        <v>62440</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>84</v>
+      </c>
+      <c r="C194" s="1">
+        <v>187320</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>168</v>
+      </c>
+      <c r="C195" s="1">
+        <v>676200</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>168</v>
+      </c>
+      <c r="C196" s="1">
+        <v>676200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>985</v>
+      </c>
+      <c r="C197" s="1">
+        <v>3964625</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>350</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1408750</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>112</v>
+      </c>
+      <c r="C199" s="1">
+        <v>450800</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>56</v>
+      </c>
+      <c r="C200" s="1">
+        <v>225400</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>168</v>
+      </c>
+      <c r="C201" s="1">
+        <v>676200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>84</v>
+      </c>
+      <c r="C202" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>120</v>
+      </c>
+      <c r="C203" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1164</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5354400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>168</v>
+      </c>
+      <c r="C205" s="1">
+        <v>772800</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>21</v>
+      </c>
+      <c r="C206" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>56</v>
+      </c>
+      <c r="C207" s="1">
+        <v>138320</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>52</v>
+      </c>
+      <c r="C208" s="1">
+        <v>128440</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>10</v>
+      </c>
+      <c r="C209" s="1">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>529</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1306630</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>56</v>
+      </c>
+      <c r="C212" s="1">
+        <v>138320</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v xml:space="preserve">Novomix Flexpen </v>
+      </c>
+      <c r="B213" s="1">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2144000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Novorapid Flexpen 100U/ml</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>56</v>
+      </c>
+      <c r="C215" s="1">
+        <v>176960</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>28</v>
+      </c>
+      <c r="C216" s="1">
+        <v>88480</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>196</v>
+      </c>
+      <c r="C217" s="1">
+        <v>619360</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>224</v>
+      </c>
+      <c r="C218" s="1">
+        <v>707840</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>84</v>
+      </c>
+      <c r="C219" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>364</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1213940</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>156</v>
+      </c>
+      <c r="C221" s="1">
+        <v>520260</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>84</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1524600</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>84</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1524600</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>174</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1607760</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>162</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1496880</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>246</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2273040</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>476</v>
+      </c>
+      <c r="C227" s="1">
+        <v>4188800</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>98</v>
+      </c>
+      <c r="C228" s="1">
+        <v>862400</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>84</v>
+      </c>
+      <c r="C229" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B230" s="1">
+        <v>112</v>
+      </c>
+      <c r="C230" s="1">
+        <v>985600</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>529</v>
+      </c>
+      <c r="C231" s="1">
+        <v>3782350</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B232" s="1">
+        <v>84</v>
+      </c>
+      <c r="C232" s="1">
+        <v>600600</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B233" s="1">
+        <v>28</v>
+      </c>
+      <c r="C233" s="1">
+        <v>200200</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B234" s="1">
+        <v>3</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2</v>
+      </c>
+      <c r="C235" s="1">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B236" s="1">
+        <v>29</v>
+      </c>
+      <c r="C236" s="1">
+        <v>12760000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B237" s="1">
+        <v>3</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B238" s="1">
+        <v>8</v>
+      </c>
+      <c r="C238" s="1">
+        <v>3520000</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B239" s="1">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1760000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Ryzodeg Flextouch 100U/ml</v>
+      </c>
+      <c r="B240" s="1">
+        <v>3</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B241" s="1">
+        <v>252</v>
+      </c>
+      <c r="C241" s="1">
+        <v>999180</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B242" s="1">
+        <v>336</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1332240</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B243" s="1">
+        <v>56</v>
+      </c>
+      <c r="C243" s="1">
+        <v>222040</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2109</v>
+      </c>
+      <c r="C244" s="1">
+        <v>8362185</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B245" s="1">
+        <v>560</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2220400</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B246" s="1">
+        <v>140</v>
+      </c>
+      <c r="C246" s="1">
+        <v>555100</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B247" s="1">
+        <v>138</v>
+      </c>
+      <c r="C247" s="1">
+        <v>547170</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>176</v>
+      </c>
+      <c r="C248" s="1">
+        <v>697840</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>105</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1143450</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>937</v>
+      </c>
+      <c r="C250" s="1">
+        <v>10203930</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>252</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2744280</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>84</v>
+      </c>
+      <c r="C252" s="1">
+        <v>914760</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Tanakan (Ginkgo biloba 40mg)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>224</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1088640</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>238</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1806420</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>461</v>
+      </c>
+      <c r="C255" s="1">
+        <v>742210</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>84</v>
+      </c>
+      <c r="C256" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>100</v>
+      </c>
+      <c r="C257" s="1">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C258" s="1">
+        <v>3223220</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>282</v>
+      </c>
+      <c r="C259" s="1">
+        <v>454020</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>212</v>
+      </c>
+      <c r="C260" s="1">
+        <v>341320</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Trajenta 5mg (Linagliptin)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>56</v>
+      </c>
+      <c r="C261" s="1">
+        <v>995120</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>98</v>
+      </c>
+      <c r="C262" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>714</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2463300</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Trymo (Bismuth Subcitrate)</v>
+      </c>
+      <c r="B264" s="1">
+        <v>80</v>
+      </c>
+      <c r="C264" s="1">
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Trymo (Bismuth Subcitrate)</v>
+      </c>
+      <c r="B265" s="1">
+        <v>56</v>
+      </c>
+      <c r="C265" s="1">
+        <v>159600</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>126</v>
+      </c>
+      <c r="C266" s="1">
+        <v>304290</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>140</v>
+      </c>
+      <c r="C267" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>42</v>
+      </c>
+      <c r="C268" s="1">
+        <v>101430</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>28</v>
+      </c>
+      <c r="C269" s="1">
+        <v>67620</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>10</v>
+      </c>
+      <c r="C270" s="1">
+        <v>38300</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>V-Rohto 13ml</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B272" s="1">
+        <v>56</v>
+      </c>
+      <c r="C272" s="1">
+        <v>191520</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B273" s="1">
+        <v>28</v>
+      </c>
+      <c r="C273" s="1">
+        <v>95760</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Victoza (Liraglutide 6mg/ml)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1453000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Victoza (Liraglutide 6mg/ml)</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2906000</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Victoza (Liraglutide 6mg/ml)</v>
+      </c>
+      <c r="B276" s="1">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1">
+        <v>4359000</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Zanedip (Lercanidipine10mg)</v>
+      </c>
+      <c r="B277" s="1">
+        <v>14</v>
+      </c>
+      <c r="C277" s="1">
+        <v>130900</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Zestoretic 20mg(LIsinopril, hydrochlorothiazide)</v>
+      </c>
+      <c r="B279" s="1">
+        <v>28</v>
+      </c>
+      <c r="C279" s="1">
+        <v>209160</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B105" s="1">
-        <v>68280</v>
-      </c>
-      <c r="C105" s="1">
-        <v>NaN</v>
+      <c r="B280" s="1">
+        <v>60165</v>
+      </c>
+      <c r="C280" s="1">
+        <v>404640615</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C105"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C280"/>
   </ignoredErrors>
 </worksheet>
 </file>